--- a/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
+++ b/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3899,4 +3900,5340 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6448</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1683</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8852</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8397</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6569</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5414</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5379</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4710</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
+++ b/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9236,4 +9237,3058 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>244.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3922</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2114</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
+++ b/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12291,4 +12292,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
+++ b/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12300,7 +12301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12311,17 +12312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12331,14 +12352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.32</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12347,14 +12390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.05</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12363,14 +12428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.68</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>140.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -12379,13 +12466,3833 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4810</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7392</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7159</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6585</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6429</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>139</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>45</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
+++ b/数据整理/stocks/A股/创业板/300896-爱美客.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16191,7 +16192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16202,17 +16203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16222,14 +16243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.91</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -16238,14 +16281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.32</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -16254,14 +16319,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>139</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.05</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>130.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -16270,14 +16357,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.68</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5710</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -16286,13 +16395,5709 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8840</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0476</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9570</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7490</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2512</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1439</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0698</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0413</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0312</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9456</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8988</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7927</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7461</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6913</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6431</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5658</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4813</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>62.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>55.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>45</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.31</v>
       </c>
     </row>
